--- a/sample_2.xlsx
+++ b/sample_2.xlsx
@@ -424,170 +424,170 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Renault Duster Intense</t>
+          <t>Maserati Levante S 3.0 АТ (430 л.с.) AWD</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>22 000</t>
+          <t>128 679</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7 тис. км   Автомат </t>
+          <t xml:space="preserve"> без пробега   Ручна / Механіка </t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Maserati Levante S 3.0 АТ (430 л.с.) AWD</t>
+          <t>Lamborghini Urus 4.0 AMT (650 л.с.) 4WD</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>131 062</t>
+          <t>423 572</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7 тис. км   Автомат </t>
+          <t xml:space="preserve"> без пробега   Ручна / Механіка </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Maserati Levante GTS 3.8i АТ (550 л.с.) AWD</t>
+          <t>Rolls-Royce Cullinan 6.7 AT (571 л.с.) AWD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>180 985</t>
+          <t>655 213</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7 тис. км   Автомат </t>
+          <t xml:space="preserve"> без пробега   Ручна / Механіка </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Maserati Levante S 3.0 АТ (430 л.с.) AWD</t>
+          <t>Lamborghini Urus 4.0 AMT (650 л.с.) 4WD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>128 679</t>
+          <t>408 616</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7 тис. км   Автомат </t>
+          <t xml:space="preserve"> без пробега   Ручна / Механіка </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rolls-Royce Cullinan 6.7 AT (571 л.с.) AWD</t>
+          <t>Nissan X-Trail</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>655 213</t>
+          <t>14 900</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7 тис. км   Автомат </t>
+          <t xml:space="preserve"> без пробега   Ручна / Механіка </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lamborghini Urus 4.0 AMT (650 л.с.) 4WD</t>
+          <t>Volkswagen Golf VII</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>423 572</t>
+          <t>9 200</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7 тис. км   Автомат </t>
+          <t xml:space="preserve"> без пробега   Ручна / Механіка </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lamborghini Urus 4.0 AMT (650 л.с.) 4WD</t>
+          <t>Skoda Octavia A7 ELEGANCE CANTON XENO</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>403 850</t>
+          <t>13 650</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7 тис. км   Автомат </t>
+          <t xml:space="preserve"> без пробега   Ручна / Механіка </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lamborghini Urus 4.0 AMT (650 л.с.) 4WD</t>
+          <t>Mercedes-Benz G 63 AMG AMG 63 G-Ttonic (575 л.с.) 4Matic</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>408 616</t>
+          <t>275 000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7 тис. км   Автомат </t>
+          <t xml:space="preserve"> без пробега   Ручна / Механіка </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Volkswagen Golf VII</t>
+          <t>Bentley Bentayga Speed 6.0i АТ (635 л.с.)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9 200</t>
+          <t>276 000</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7 тис. км   Автомат </t>
+          <t xml:space="preserve"> без пробега   Ручна / Механіка </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Skoda Octavia A7 ELEGANCE CANTON XENO</t>
+          <t>Volvo V50 PERLAMUTR D2 84KW</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>13 650</t>
+          <t>8 950</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7 тис. км   Автомат </t>
+          <t xml:space="preserve"> без пробега   Ручна / Механіка </t>
         </is>
       </c>
     </row>

--- a/sample_2.xlsx
+++ b/sample_2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,170 +424,153 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Maserati Levante S 3.0 АТ (430 л.с.) AWD</t>
+          <t>Bentley Bentayga Speed 6.0i АТ (635 л.с.)</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>128 679</t>
+          <t>276 000</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> без пробега   Ручна / Механіка </t>
+          <t xml:space="preserve"> без пробега   Автомат </t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Lamborghini Urus 4.0 AMT (650 л.с.) 4WD</t>
+          <t>BMW X3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>423 572</t>
+          <t>22 900</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> без пробега   Ручна / Механіка </t>
+          <t xml:space="preserve"> без пробега   Автомат </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Rolls-Royce Cullinan 6.7 AT (571 л.с.) AWD</t>
+          <t>Mercedes-Benz GLC 300</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>655 213</t>
+          <t>64 500</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> без пробега   Ручна / Механіка </t>
+          <t xml:space="preserve"> без пробега   Автомат </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lamborghini Urus 4.0 AMT (650 л.с.) 4WD</t>
+          <t>Maserati Levante S 3.0 АТ (430 л.с.) AWD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>408 616</t>
+          <t>130 754</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> без пробега   Ручна / Механіка </t>
+          <t xml:space="preserve"> без пробега   Автомат </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Nissan X-Trail</t>
+          <t>Maserati Levante GTS 3.8i АТ (550 л.с.) AWD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>14 900</t>
+          <t>180 559</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> без пробега   Ручна / Механіка </t>
+          <t xml:space="preserve"> без пробега   Автомат </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Volkswagen Golf VII</t>
+          <t>Maserati Levante S 3.0 АТ (430 л.с.) AWD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9 200</t>
+          <t>128 377</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> без пробега   Ручна / Механіка </t>
+          <t xml:space="preserve"> без пробега   Автомат </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Skoda Octavia A7 ELEGANCE CANTON XENO</t>
+          <t>Lamborghini Urus 4.0 AMT (650 л.с.) 4WD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>13 650</t>
+          <t>407 741</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> без пробега   Ручна / Механіка </t>
+          <t xml:space="preserve"> без пробега   Автомат </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mercedes-Benz G 63 AMG AMG 63 G-Ttonic (575 л.с.) 4Matic</t>
+          <t>Lamborghini Urus 4.0 AMT (650 л.с.) 4WD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>275 000</t>
+          <t>422 665</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> без пробега   Ручна / Механіка </t>
+          <t xml:space="preserve"> без пробега   Автомат </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Bentley Bentayga Speed 6.0i АТ (635 л.с.)</t>
+          <t>Rolls-Royce Cullinan 6.7 AT (571 л.с.) AWD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>276 000</t>
+          <t>653 810</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> без пробега   Ручна / Механіка </t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Volvo V50 PERLAMUTR D2 84KW</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>8 950</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> без пробега   Ручна / Механіка </t>
+          <t xml:space="preserve"> без пробега   Автомат </t>
         </is>
       </c>
     </row>
